--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>Catégorie</t>
   </si>
@@ -42,22 +42,31 @@
     <t>SEO</t>
   </si>
   <si>
-    <t>pas de title</t>
-  </si>
-  <si>
-    <t>Un point à la place du nom de l'agence</t>
-  </si>
-  <si>
     <t>Page</t>
   </si>
   <si>
-    <t>Mauvais nom de page</t>
+    <t>Valeur attribut default pour la langue</t>
   </si>
   <si>
-    <t>Page 2 au lieu d'un titre</t>
+    <t>à la place de default mettre fr</t>
   </si>
   <si>
-    <t>Mettre le nom de l'agence</t>
+    <t xml:space="preserve">Appliqué la langue du pays </t>
+  </si>
+  <si>
+    <t>balise title avec un point</t>
+  </si>
+  <si>
+    <t>La balise title n'a pas le nom de l'agence</t>
+  </si>
+  <si>
+    <t>Mettre le nom de l'agence dans le title</t>
+  </si>
+  <si>
+    <t>Meta description vide</t>
+  </si>
+  <si>
+    <t>Ajouté la description dans le content</t>
   </si>
 </sst>
 </file>
@@ -348,14 +357,15 @@
   <dimension ref="A1:AA1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="3" width="21.33203125" customWidth="1"/>
-    <col min="4" max="4" width="30.44140625" customWidth="1"/>
-    <col min="5" max="5" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="3" max="3" width="28.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.77734375" customWidth="1"/>
     <col min="7" max="7" width="21.33203125" customWidth="1"/>
     <col min="8" max="27" width="10.5546875" customWidth="1"/>
@@ -363,7 +373,7 @@
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -412,13 +422,13 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F2" s="4" t="b">
         <v>0</v>
@@ -426,22 +436,37 @@
     </row>
     <row r="3" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
       </c>
       <c r="F3" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
       <c r="F4" s="4" t="b">
         <v>0</v>
       </c>
